--- a/examples/Abatement/Data/IOdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/IOdata_main_catalog.xlsx
@@ -47,18 +47,6 @@
     <t>qD/qD</t>
   </si>
   <si>
-    <t>basetech_EL_electricity</t>
-  </si>
-  <si>
-    <t>basetech_EL_oil</t>
-  </si>
-  <si>
-    <t>basetech_EL_K</t>
-  </si>
-  <si>
-    <t>basetech_EL_gas</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -66,6 +54,18 @@
   </si>
   <si>
     <t>out1</t>
+  </si>
+  <si>
+    <t>basetech_EH_electricity</t>
+  </si>
+  <si>
+    <t>basetech_EH_oil</t>
+  </si>
+  <si>
+    <t>basetech_EH_gas</t>
+  </si>
+  <si>
+    <t>basetech_EH_K</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,13 +413,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -427,15 +427,15 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,36 +443,36 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/IOdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/IOdata_main_catalog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>electricity</t>
   </si>
@@ -56,16 +56,13 @@
     <t>out1</t>
   </si>
   <si>
-    <t>basetech_EH_electricity</t>
-  </si>
-  <si>
-    <t>basetech_EH_oil</t>
-  </si>
-  <si>
-    <t>basetech_EH_gas</t>
-  </si>
-  <si>
-    <t>basetech_EH_K</t>
+    <t>qsumX/n</t>
+  </si>
+  <si>
+    <t>qsumX/nn</t>
+  </si>
+  <si>
+    <t>qsumX/qsumX</t>
   </si>
 </sst>
 </file>
@@ -383,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +391,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -407,83 +404,96 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>27</v>
       </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/IOdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/IOdata_main_catalog.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Abatement/Data/IOdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/IOdata_main_catalog.xlsx
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/examples/Abatement/Data/IOdata_main_catalog.xlsx
+++ b/examples/Abatement/Data/IOdata_main_catalog.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
